--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7a-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7a-Fzd10.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1038565</v>
+        <v>0.016657</v>
       </c>
       <c r="N2">
-        <v>0.207713</v>
+        <v>0.033314</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.04426949088283334</v>
+        <v>0.007100151744333334</v>
       </c>
       <c r="R2">
-        <v>0.265616945297</v>
+        <v>0.04260091046600001</v>
       </c>
       <c r="S2">
         <v>1</v>
